--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_16-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_16-41.xlsx
@@ -47,6 +47,9 @@
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
     <t>CHITO 500 MG 60 CAPS.</t>
   </si>
   <si>
@@ -110,6 +113,12 @@
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>DIAMOND EMIFOLIC 30CAPS</t>
   </si>
   <si>
@@ -134,6 +143,12 @@
     <t>HIBIOTIC 625MG 16 TAB.</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -182,7 +197,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>فرش اسنان HASI</t>
@@ -880,13 +898,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -912,7 +930,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -938,11 +956,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -950,7 +968,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -964,11 +982,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -984,17 +1002,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,7 +1020,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1010,17 +1028,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>43.329999999999998</v>
+        <v>74</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1028,7 +1046,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1036,17 +1054,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>25</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1054,7 +1072,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1062,17 +1080,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1088,17 +1106,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1120,11 +1138,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1132,7 +1150,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1140,17 +1158,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1166,17 +1184,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>133.5</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1198,7 +1216,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>57</v>
+        <v>133.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1218,13 +1236,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1236,7 +1254,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1244,13 +1262,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1276,7 +1294,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1296,17 +1314,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1314,7 +1332,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1328,11 +1346,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1348,17 +1366,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1366,7 +1384,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1374,17 +1392,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1400,17 +1418,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>71.5</v>
+        <v>28</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1418,7 +1436,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1426,17 +1444,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1444,7 +1462,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1452,17 +1470,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>71.5</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1470,7 +1488,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1478,17 +1496,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1496,7 +1514,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1504,17 +1522,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1530,17 +1548,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1548,7 +1566,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1556,17 +1574,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1574,7 +1592,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1582,17 +1600,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1618,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1608,17 +1626,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1626,7 +1644,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1634,17 +1652,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1652,7 +1670,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1660,17 +1678,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1678,7 +1696,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1686,17 +1704,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1704,7 +1722,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1712,13 +1730,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1738,13 +1756,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1756,7 +1774,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1764,17 +1782,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>44.549999999999997</v>
+        <v>12</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1790,7 +1808,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1808,7 +1826,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1816,51 +1834,129 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="10">
-        <v>2250.8800000000001</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="11">
-        <v>67</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c t="s" r="F45" s="12">
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
         <v>68</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c t="s" r="I45" s="14">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
         <v>69</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>44.549999999999997</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>70</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>65</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>35</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
+        <v>71</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>72</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>30</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="K47" s="10">
+        <v>2386.8800000000001</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="11">
+        <v>73</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c t="s" r="F48" s="12">
+        <v>74</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c t="s" r="I48" s="14">
+        <v>75</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="140">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1988,10 +2084,19 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
